--- a/Otros documentos/Documentación/Plantilla de casos de prueba.xlsx
+++ b/Otros documentos/Documentación/Plantilla de casos de prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8022B1-2A28-4A1E-82C6-406570D95A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16D0C3-BC0D-4BA5-A806-D2B8ECDC3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F3A94DC-10E7-4D4E-8311-67223DDAE72B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{5F3A94DC-10E7-4D4E-8311-67223DDAE72B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de Casos de Prueba" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -279,9 +282,6 @@
     <t>Medir envío → primer frame.</t>
   </si>
   <si>
-    <t>≤ 3 s.</t>
-  </si>
-  <si>
     <t>95 % de casos cumplen límite.</t>
   </si>
   <si>
@@ -465,9 +465,6 @@
     <t>Palabras (tiempo real)</t>
   </si>
   <si>
-    <t>Evalúa comprensibilidad de señas básicas.</t>
-  </si>
-  <si>
     <t>Medir claridad de interpretación.</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
     <t>Observaciones: Notas o incidencias a registrar tras ejecución.</t>
   </si>
   <si>
-    <t>Evalúa comprensibilidad de señas con frases.</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -580,6 +574,15 @@
   </si>
   <si>
     <t>1. Abrir interfaz web. 2. Hacer clic en “Iniciar”. 3. Esperar 10 s. 4. Hacer clic en “Enviar”.</t>
+  </si>
+  <si>
+    <t>≤ 9 s.</t>
+  </si>
+  <si>
+    <t>Evalúa comprensibilidad de animaciones básicas.</t>
+  </si>
+  <si>
+    <t>Evalúa comprensibilidad de animaciones con frases.</t>
   </si>
 </sst>
 </file>
@@ -1058,13 +1061,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1081,6 +1077,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1125,7 +1128,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C875586-45BE-45BE-BF6B-364A4784554B}" name="Tabla1" displayName="Tabla1" ref="A1:N18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C875586-45BE-45BE-BF6B-364A4784554B}" name="Tabla1" displayName="Tabla1" ref="A1:N18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:N18" xr:uid="{2C875586-45BE-45BE-BF6B-364A4784554B}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C58B46BA-5BD5-457F-8D30-66157ED8CAAC}" name="ID" dataDxfId="13"/>
@@ -1466,29 +1469,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12EE750-BDD2-43E8-9349-6F107EC53F88}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.53515625" style="1"/>
+    <col min="3" max="3" width="16.84375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.4609375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="11.53515625" style="1"/>
+    <col min="8" max="8" width="19.84375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.53515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.53515625" style="1"/>
+    <col min="13" max="13" width="14.07421875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.23046875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.53515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1526,13 +1529,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -1570,13 +1573,13 @@
         <v>23</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1608,19 +1611,19 @@
         <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1652,17 +1655,17 @@
         <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -1694,17 +1697,17 @@
         <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1736,17 +1739,17 @@
         <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1778,17 +1781,17 @@
         <v>71</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -1814,136 +1817,136 @@
         <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>22</v>
@@ -1952,169 +1955,169 @@
         <v>23</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>23</v>
@@ -2124,39 +2127,39 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>23</v>
@@ -2166,39 +2169,39 @@
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="I17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>23</v>
@@ -2208,39 +2211,39 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>163</v>
-      </c>
       <c r="K18" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>53</v>
@@ -2267,61 +2270,61 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Otros documentos/Documentación/Plantilla de casos de prueba.xlsx
+++ b/Otros documentos/Documentación/Plantilla de casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D16D0C3-BC0D-4BA5-A806-D2B8ECDC3585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B7603-7D5F-40E5-A485-01D192184439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{5F3A94DC-10E7-4D4E-8311-67223DDAE72B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Prioridad</t>
   </si>
   <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>CF-01</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>No ejecutado</t>
   </si>
   <si>
-    <t>Prueba inicial de conexión de flujo.</t>
-  </si>
-  <si>
     <t>CF-02</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>≥ 90 % palabras correctas (WER ≤ 10 %).</t>
   </si>
   <si>
-    <t>Requiere entorno silencioso.</t>
-  </si>
-  <si>
     <t>CF-03</t>
   </si>
   <si>
@@ -583,6 +574,60 @@
   </si>
   <si>
     <t>Evalúa comprensibilidad de animaciones con frases.</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>El sistema inicia y finaliza grabación correctamente; flujo validado.</t>
+  </si>
+  <si>
+    <t>Transcripción comprensible con pequeños errores en términos compuestos.</t>
+  </si>
+  <si>
+    <t>Animación correcta para “hola”, “inteligencia” y “Chile”.</t>
+  </si>
+  <si>
+    <t>Fallback activado correctamente en 100 % de los casos.</t>
+  </si>
+  <si>
+    <t>Animación estable, 29–31 fps promedio.</t>
+  </si>
+  <si>
+    <t>El micrófono continuó activo tras detener la grabación, generando consumo de tokens.</t>
+  </si>
+  <si>
+    <t>Promedio 13 s (P95 ≈ 7.1 s), excede límite.</t>
+  </si>
+  <si>
+    <t>Latencia P95 = 11.2 s, afectada por retardo del modelo STT.</t>
+  </si>
+  <si>
+    <t>Sin ejecución de prueba de jitter por entorno local.</t>
+  </si>
+  <si>
+    <t>Se ejecutaron 10 grabaciones sin reinicio ni pérdida de flujo.</t>
+  </si>
+  <si>
+    <t>Flujo estable y animación correcta.</t>
+  </si>
+  <si>
+    <t>Misma estabilidad y resultado que en Windows 10.</t>
+  </si>
+  <si>
+    <t>Falta de entorno alternativo configurado.</t>
+  </si>
+  <si>
+    <t>Reproducibilidad completa entre ejecuciones iguales.</t>
+  </si>
+  <si>
+    <t>Comprensibilidad 100 % en palabras dentro del diccionario.</t>
+  </si>
+  <si>
+    <t>3/5 aprobadas; 1 error leve en frase “cómo estás”.</t>
+  </si>
+  <si>
+    <t>Solo 1/3 interpretadas correctamente; confusiones por falta de glosas.</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1189,7 @@
     <tableColumn id="11" xr3:uid="{CE9A5B75-B451-4C09-AE19-9622039BF21E}" name="Responsable" dataDxfId="3"/>
     <tableColumn id="12" xr3:uid="{8E6C0A6A-23FA-4738-92F0-BED3D008F457}" name="Prioridad" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{3F6B0BD1-3A95-423E-A4B8-D2CEFA60DFEE}" name="Estado" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{AA68477E-7074-4997-B128-83CBFDCA13D9}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{AA68477E-7074-4997-B128-83CBFDCA13D9}" name="Resultado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12EE750-BDD2-43E8-9349-6F107EC53F88}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1529,729 +1574,759 @@
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N5" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N7" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N9" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="N16" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="L17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="N17" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="I18" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="10"/>
+      <c r="N18" s="10" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,57 +2349,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
